--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Bellerby_Wilson/Thomas_Bellerby_Wilson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Bellerby_Wilson/Thomas_Bellerby_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Bellerby Wilson est un médecin et un naturaliste américain, né le 17 janvier 1807 à Philadelphie en Pennsylvanie et mort le 15 mars 1865 à Newark.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine dans sa ville natale. Son cabinet était très recherché et il connaît un grand succès.
 Il se consacre à l’histoire naturelle et notamment à l’étude des oiseaux. Sa collection est riche de 26 000 spécimens.
@@ -545,10 +559,12 @@
           <t>Classification taxonomique du vivant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1863, Wilson &amp; Cassin présentaient une contribution devant l'Académie des sciences naturelles de Philadelphie dans laquelle ils considéraient l'existence d'un troisième règne du vivant Primalia en supplément des deux règnes Vegetabilia et Animalia créés par Linné dans son Systema Naturae.
-Selon le compte-rendu publié par l'Académie en 1864[1], le règne Primalia était composé de cinq sous-règnes :
+Selon le compte-rendu publié par l'Académie en 1864, le règne Primalia était composé de cinq sous-règnes :
 Règne Primalia
 Sous-règne Algae
 Sous-règne Lichenes
